--- a/biology/Botanique/Caliroa_annulipes/Caliroa_annulipes.xlsx
+++ b/biology/Botanique/Caliroa_annulipes/Caliroa_annulipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Tenthrède limace des feuillus (Caliroa annulipes) est une espèce d'insectes hyménoptères de la famille des Tenthredinidae, originaire d'Europe.
 Cette tenthrède est un insecte ravageur d'un certain nombre d'arbres (des genres Quercus et aussi Tilia, Betula, Salix, Fagus...).
@@ -513,9 +525,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF.org[1] et Hymenoptera Name Server[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF.org et Hymenoptera Name Server :
 Caliroa annulipes (Klug)
 Caliroa myrtilli (Brischke)
 Eriocampa Myrtilli Brischke
@@ -551,10 +565,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte, au corps noir, mesure de 7 à 8 mm de long.
-La larve, au corps jaune clair et à la tête brun-noirâtre mesure de 10 à 12 mm de long[3].
+La larve, au corps jaune clair et à la tête brun-noirâtre mesure de 10 à 12 mm de long.
 </t>
         </is>
       </c>
